--- a/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -1085,7 +1085,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequestBase)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection)
 </t>
   </si>
   <si>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}mdd-1:いつ準備されたときにハンドドーバーができないとき / whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationdispense-injection.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
